--- a/document/official/팀원간_피어리뷰_평가지.xlsx
+++ b/document/official/팀원간_피어리뷰_평가지.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783390DE-8743-40E3-8C30-49672AAE294D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="평가지" sheetId="2" r:id="rId1"/>
@@ -12,7 +13,20 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">평가지!$A$1:$F$19</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -70,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -579,6 +593,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -607,9 +624,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -635,9 +649,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -675,9 +689,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -712,7 +726,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -747,7 +761,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -920,68 +934,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="26.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.3984375" customWidth="1"/>
+    <col min="2" max="2" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="36" x14ac:dyDescent="0.75">
-      <c r="B2" s="35" t="s">
+    <row r="2" spans="2:5" ht="38.25" x14ac:dyDescent="0.7">
+      <c r="B2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-    </row>
-    <row r="3" spans="2:5" ht="36" x14ac:dyDescent="0.75">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+    </row>
+    <row r="3" spans="2:5" ht="38.25" x14ac:dyDescent="0.7">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="36"/>
-    </row>
-    <row r="5" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="36"/>
-    </row>
-    <row r="6" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="27" t="s">
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-    </row>
-    <row r="8" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="28"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="29"/>
       <c r="C8" s="5"/>
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="14" t="s">
         <v>1</v>
       </c>
@@ -989,7 +1003,7 @@
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
@@ -997,7 +1011,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="18" t="s">
         <v>3</v>
       </c>
@@ -1005,7 +1019,7 @@
       <c r="D11" s="20"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
         <v>4</v>
       </c>
@@ -1013,7 +1027,7 @@
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="22" t="s">
         <v>5</v>
       </c>
@@ -1030,21 +1044,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="155.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:5" ht="155.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="26" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="5">
